--- a/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
@@ -1931,7 +1931,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2036,12 +2036,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2250,7 +2244,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2419,10 +2413,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2435,7 +2425,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2826,7 +2816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="163.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3966,11 +3956,11 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="M30" activeCellId="0" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5067,11 +5057,13 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="34"/>
+      <c r="J30" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
       <c r="M30" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N30" s="34" t="s">
         <v>63</v>
@@ -5092,9 +5084,7 @@
         <v>93</v>
       </c>
       <c r="T30" s="34"/>
-      <c r="U30" s="35" t="s">
-        <v>63</v>
-      </c>
+      <c r="U30" s="35"/>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
         <v>54</v>
@@ -6040,7 +6030,7 @@
       <c r="E55" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="F55" s="42" t="n">
+      <c r="F55" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G55" s="39" t="s">
@@ -11037,7 +11027,7 @@
       <c r="B186" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="43" t="s">
+      <c r="C186" s="42" t="s">
         <v>59</v>
       </c>
       <c r="D186" s="30" t="s">
@@ -11322,7 +11312,7 @@
       <c r="D193" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="E193" s="44" t="s">
+      <c r="E193" s="43" t="s">
         <v>448</v>
       </c>
       <c r="F193" s="33"/>
@@ -15434,7 +15424,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>452</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -15446,158 +15436,158 @@
       <c r="D1" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="50" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="48" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="50" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="36.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>474</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>475</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="50" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="53"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="53"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16578,32 +16568,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
@@ -859,9 +859,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT18_KO</t>
   </si>
   <si>
@@ -1760,13 +1757,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-01-26T10:21:21.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">372e1ad0b25c2356a87b298a1f69b8f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.455854493f20645227e7f443fbe39f13a1c1df094693d43eb7944bc7f8ddbe18.7b14ea6fa9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-03T13:14:21.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2772734ea5eef1593aa69a94d0254af8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.04b54ed75d7aa0a3bf6374dafe854e35641c6e5c2e6a72fc00ef0f196a7d67e8.28d18f1a99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -1827,6 +1824,9 @@
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzato di default</t>
@@ -3956,11 +3956,11 @@
   <dimension ref="A1:W750"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M30" activeCellId="0" sqref="M30"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="K68" activeCellId="0" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3969,7 +3969,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="104.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="74.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="1" width="33.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="1" width="36.45"/>
@@ -6384,7 +6384,7 @@
         <v>65</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
@@ -6412,10 +6412,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>173</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>174</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6425,7 +6425,7 @@
         <v>65</v>
       </c>
       <c r="K63" s="34" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L63" s="34"/>
       <c r="M63" s="34"/>
@@ -6453,10 +6453,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E64" s="31" t="s">
         <v>175</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>176</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6466,7 +6466,7 @@
         <v>65</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L64" s="34"/>
       <c r="M64" s="34"/>
@@ -6494,10 +6494,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="31" t="s">
         <v>177</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>178</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6507,7 +6507,7 @@
         <v>65</v>
       </c>
       <c r="K65" s="34" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34"/>
@@ -6535,10 +6535,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="31" t="s">
         <v>179</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>180</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6548,7 +6548,7 @@
         <v>65</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
@@ -6576,22 +6576,22 @@
         <v>59</v>
       </c>
       <c r="D67" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" s="31" t="s">
         <v>181</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>182</v>
       </c>
       <c r="F67" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G67" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H67" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="H67" s="39" t="s">
+      <c r="I67" s="39" t="s">
         <v>184</v>
-      </c>
-      <c r="I67" s="39" t="s">
-        <v>185</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>63</v>
@@ -6605,7 +6605,7 @@
         <v>63</v>
       </c>
       <c r="O67" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P67" s="34" t="s">
         <v>63</v>
@@ -6617,7 +6617,7 @@
         <v>63</v>
       </c>
       <c r="S67" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
@@ -6637,10 +6637,10 @@
         <v>59</v>
       </c>
       <c r="D68" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" s="31" t="s">
         <v>188</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>189</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6650,7 +6650,7 @@
         <v>65</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
@@ -6678,10 +6678,10 @@
         <v>69</v>
       </c>
       <c r="D69" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="31" t="s">
         <v>191</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>192</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6715,10 +6715,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>194</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6752,10 +6752,10 @@
         <v>69</v>
       </c>
       <c r="D71" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="31" t="s">
         <v>195</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>196</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6789,10 +6789,10 @@
         <v>69</v>
       </c>
       <c r="D72" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="31" t="s">
         <v>197</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>198</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6826,10 +6826,10 @@
         <v>69</v>
       </c>
       <c r="D73" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="31" t="s">
         <v>199</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>200</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6863,10 +6863,10 @@
         <v>69</v>
       </c>
       <c r="D74" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E74" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>202</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6900,10 +6900,10 @@
         <v>69</v>
       </c>
       <c r="D75" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" s="31" t="s">
         <v>203</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>204</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6937,10 +6937,10 @@
         <v>69</v>
       </c>
       <c r="D76" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="31" t="s">
         <v>205</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>206</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6974,10 +6974,10 @@
         <v>69</v>
       </c>
       <c r="D77" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="31" t="s">
         <v>207</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>208</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -7011,10 +7011,10 @@
         <v>69</v>
       </c>
       <c r="D78" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="31" t="s">
         <v>209</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>210</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -7048,10 +7048,10 @@
         <v>69</v>
       </c>
       <c r="D79" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="31" t="s">
         <v>211</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>212</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -7085,10 +7085,10 @@
         <v>71</v>
       </c>
       <c r="D80" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" s="31" t="s">
         <v>213</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>214</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -7122,10 +7122,10 @@
         <v>71</v>
       </c>
       <c r="D81" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="31" t="s">
         <v>215</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>216</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -7159,10 +7159,10 @@
         <v>71</v>
       </c>
       <c r="D82" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>218</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -7196,10 +7196,10 @@
         <v>71</v>
       </c>
       <c r="D83" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -7233,10 +7233,10 @@
         <v>71</v>
       </c>
       <c r="D84" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E84" s="31" t="s">
         <v>221</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>222</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -7270,10 +7270,10 @@
         <v>71</v>
       </c>
       <c r="D85" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="31" t="s">
         <v>223</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>224</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -7307,10 +7307,10 @@
         <v>71</v>
       </c>
       <c r="D86" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="31" t="s">
         <v>225</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>226</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -7344,10 +7344,10 @@
         <v>71</v>
       </c>
       <c r="D87" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" s="31" t="s">
         <v>227</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>228</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -7381,10 +7381,10 @@
         <v>71</v>
       </c>
       <c r="D88" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="31" t="s">
         <v>229</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>230</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -7418,10 +7418,10 @@
         <v>71</v>
       </c>
       <c r="D89" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="E89" s="31" t="s">
         <v>231</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>232</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7455,10 +7455,10 @@
         <v>71</v>
       </c>
       <c r="D90" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>234</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7492,10 +7492,10 @@
         <v>71</v>
       </c>
       <c r="D91" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E91" s="31" t="s">
         <v>235</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>236</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7529,10 +7529,10 @@
         <v>71</v>
       </c>
       <c r="D92" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="E92" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>238</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7566,10 +7566,10 @@
         <v>73</v>
       </c>
       <c r="D93" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" s="31" t="s">
         <v>239</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>240</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7603,10 +7603,10 @@
         <v>73</v>
       </c>
       <c r="D94" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" s="31" t="s">
         <v>241</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>242</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7640,10 +7640,10 @@
         <v>73</v>
       </c>
       <c r="D95" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="31" t="s">
         <v>243</v>
-      </c>
-      <c r="E95" s="31" t="s">
-        <v>244</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7677,10 +7677,10 @@
         <v>73</v>
       </c>
       <c r="D96" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" s="31" t="s">
         <v>245</v>
-      </c>
-      <c r="E96" s="31" t="s">
-        <v>246</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7714,10 +7714,10 @@
         <v>73</v>
       </c>
       <c r="D97" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E97" s="31" t="s">
         <v>247</v>
-      </c>
-      <c r="E97" s="31" t="s">
-        <v>248</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7751,10 +7751,10 @@
         <v>73</v>
       </c>
       <c r="D98" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="E98" s="31" t="s">
         <v>249</v>
-      </c>
-      <c r="E98" s="31" t="s">
-        <v>250</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7788,10 +7788,10 @@
         <v>73</v>
       </c>
       <c r="D99" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" s="31" t="s">
         <v>251</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>252</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7825,10 +7825,10 @@
         <v>73</v>
       </c>
       <c r="D100" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" s="31" t="s">
         <v>253</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7862,10 +7862,10 @@
         <v>73</v>
       </c>
       <c r="D101" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="E101" s="31" t="s">
         <v>255</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>256</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7899,10 +7899,10 @@
         <v>73</v>
       </c>
       <c r="D102" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" s="31" t="s">
         <v>257</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>258</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7936,10 +7936,10 @@
         <v>73</v>
       </c>
       <c r="D103" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E103" s="31" t="s">
         <v>259</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>260</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7973,10 +7973,10 @@
         <v>73</v>
       </c>
       <c r="D104" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E104" s="31" t="s">
         <v>261</v>
-      </c>
-      <c r="E104" s="31" t="s">
-        <v>262</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -8010,10 +8010,10 @@
         <v>73</v>
       </c>
       <c r="D105" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E105" s="31" t="s">
         <v>263</v>
-      </c>
-      <c r="E105" s="31" t="s">
-        <v>264</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -8047,10 +8047,10 @@
         <v>73</v>
       </c>
       <c r="D106" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E106" s="31" t="s">
         <v>265</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>266</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -8084,10 +8084,10 @@
         <v>73</v>
       </c>
       <c r="D107" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E107" s="31" t="s">
         <v>267</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>268</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -8121,10 +8121,10 @@
         <v>73</v>
       </c>
       <c r="D108" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E108" s="31" t="s">
         <v>269</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>270</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -8158,10 +8158,10 @@
         <v>73</v>
       </c>
       <c r="D109" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="E109" s="31" t="s">
         <v>271</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>272</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -8195,10 +8195,10 @@
         <v>73</v>
       </c>
       <c r="D110" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E110" s="31" t="s">
         <v>273</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>274</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -8232,10 +8232,10 @@
         <v>73</v>
       </c>
       <c r="D111" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E111" s="31" t="s">
         <v>275</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>276</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -8269,10 +8269,10 @@
         <v>73</v>
       </c>
       <c r="D112" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E112" s="31" t="s">
         <v>277</v>
-      </c>
-      <c r="E112" s="31" t="s">
-        <v>278</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -8306,10 +8306,10 @@
         <v>73</v>
       </c>
       <c r="D113" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>280</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -8343,10 +8343,10 @@
         <v>73</v>
       </c>
       <c r="D114" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E114" s="31" t="s">
         <v>281</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>282</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -8380,10 +8380,10 @@
         <v>73</v>
       </c>
       <c r="D115" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E115" s="31" t="s">
         <v>283</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>284</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -8417,10 +8417,10 @@
         <v>67</v>
       </c>
       <c r="D116" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E116" s="31" t="s">
         <v>285</v>
-      </c>
-      <c r="E116" s="31" t="s">
-        <v>286</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -8454,10 +8454,10 @@
         <v>67</v>
       </c>
       <c r="D117" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="E117" s="31" t="s">
         <v>287</v>
-      </c>
-      <c r="E117" s="31" t="s">
-        <v>288</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8491,10 +8491,10 @@
         <v>67</v>
       </c>
       <c r="D118" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E118" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="E118" s="31" t="s">
-        <v>290</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8528,10 +8528,10 @@
         <v>67</v>
       </c>
       <c r="D119" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="E119" s="31" t="s">
         <v>291</v>
-      </c>
-      <c r="E119" s="31" t="s">
-        <v>292</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8565,10 +8565,10 @@
         <v>67</v>
       </c>
       <c r="D120" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="E120" s="31" t="s">
         <v>293</v>
-      </c>
-      <c r="E120" s="31" t="s">
-        <v>294</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8602,10 +8602,10 @@
         <v>67</v>
       </c>
       <c r="D121" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E121" s="31" t="s">
         <v>295</v>
-      </c>
-      <c r="E121" s="31" t="s">
-        <v>296</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8639,10 +8639,10 @@
         <v>67</v>
       </c>
       <c r="D122" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="E122" s="31" t="s">
         <v>297</v>
-      </c>
-      <c r="E122" s="31" t="s">
-        <v>298</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8676,10 +8676,10 @@
         <v>67</v>
       </c>
       <c r="D123" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" s="31" t="s">
         <v>299</v>
-      </c>
-      <c r="E123" s="31" t="s">
-        <v>300</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8713,10 +8713,10 @@
         <v>67</v>
       </c>
       <c r="D124" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" s="31" t="s">
         <v>301</v>
-      </c>
-      <c r="E124" s="31" t="s">
-        <v>302</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8750,10 +8750,10 @@
         <v>67</v>
       </c>
       <c r="D125" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="E125" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="E125" s="31" t="s">
-        <v>304</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8787,10 +8787,10 @@
         <v>67</v>
       </c>
       <c r="D126" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="E126" s="31" t="s">
         <v>305</v>
-      </c>
-      <c r="E126" s="31" t="s">
-        <v>306</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -8824,10 +8824,10 @@
         <v>67</v>
       </c>
       <c r="D127" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="E127" s="31" t="s">
         <v>307</v>
-      </c>
-      <c r="E127" s="31" t="s">
-        <v>308</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -8861,10 +8861,10 @@
         <v>67</v>
       </c>
       <c r="D128" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="E128" s="31" t="s">
         <v>309</v>
-      </c>
-      <c r="E128" s="31" t="s">
-        <v>310</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -8898,10 +8898,10 @@
         <v>67</v>
       </c>
       <c r="D129" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E129" s="31" t="s">
         <v>311</v>
-      </c>
-      <c r="E129" s="31" t="s">
-        <v>312</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -8935,10 +8935,10 @@
         <v>67</v>
       </c>
       <c r="D130" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="E130" s="31" t="s">
         <v>313</v>
-      </c>
-      <c r="E130" s="31" t="s">
-        <v>314</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -8972,10 +8972,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E131" s="31" t="s">
         <v>315</v>
-      </c>
-      <c r="E131" s="31" t="s">
-        <v>316</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -9009,10 +9009,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E132" s="31" t="s">
         <v>317</v>
-      </c>
-      <c r="E132" s="31" t="s">
-        <v>318</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -9046,10 +9046,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="E133" s="31" t="s">
         <v>319</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>320</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -9083,10 +9083,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E134" s="31" t="s">
         <v>321</v>
-      </c>
-      <c r="E134" s="31" t="s">
-        <v>322</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -9120,10 +9120,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E135" s="31" t="s">
         <v>323</v>
-      </c>
-      <c r="E135" s="31" t="s">
-        <v>324</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -9157,10 +9157,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E136" s="31" t="s">
         <v>325</v>
-      </c>
-      <c r="E136" s="31" t="s">
-        <v>326</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -9194,10 +9194,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="E137" s="31" t="s">
         <v>327</v>
-      </c>
-      <c r="E137" s="31" t="s">
-        <v>328</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -9231,10 +9231,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E138" s="31" t="s">
         <v>329</v>
-      </c>
-      <c r="E138" s="31" t="s">
-        <v>330</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -9268,10 +9268,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E139" s="31" t="s">
         <v>331</v>
-      </c>
-      <c r="E139" s="31" t="s">
-        <v>332</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -9305,10 +9305,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E140" s="31" t="s">
         <v>333</v>
-      </c>
-      <c r="E140" s="31" t="s">
-        <v>334</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -9342,10 +9342,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="E141" s="31" t="s">
         <v>335</v>
-      </c>
-      <c r="E141" s="31" t="s">
-        <v>336</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -9379,10 +9379,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E142" s="31" t="s">
         <v>337</v>
-      </c>
-      <c r="E142" s="31" t="s">
-        <v>338</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -9416,10 +9416,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E143" s="31" t="s">
         <v>339</v>
-      </c>
-      <c r="E143" s="31" t="s">
-        <v>340</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -9453,10 +9453,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E144" s="31" t="s">
         <v>341</v>
-      </c>
-      <c r="E144" s="31" t="s">
-        <v>342</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -9490,10 +9490,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="E145" s="31" t="s">
         <v>343</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>344</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -9527,10 +9527,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="E146" s="31" t="s">
         <v>345</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>346</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9564,10 +9564,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="E147" s="31" t="s">
         <v>347</v>
-      </c>
-      <c r="E147" s="31" t="s">
-        <v>348</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9598,13 +9598,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D148" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="E148" s="31" t="s">
         <v>350</v>
-      </c>
-      <c r="E148" s="31" t="s">
-        <v>351</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9635,13 +9635,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D149" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E149" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>353</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9672,13 +9672,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D150" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E150" s="31" t="s">
         <v>354</v>
-      </c>
-      <c r="E150" s="31" t="s">
-        <v>355</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -9709,10 +9709,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E151" s="38" t="s">
         <v>53</v>
@@ -9746,10 +9746,10 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>76</v>
@@ -9783,13 +9783,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D153" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E153" s="31" t="s">
         <v>358</v>
-      </c>
-      <c r="E153" s="31" t="s">
-        <v>359</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -9820,13 +9820,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D154" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="E154" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="E154" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -9857,13 +9857,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D155" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="E155" s="31" t="s">
         <v>362</v>
-      </c>
-      <c r="E155" s="31" t="s">
-        <v>363</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -9894,13 +9894,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D156" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="E156" s="31" t="s">
         <v>364</v>
-      </c>
-      <c r="E156" s="31" t="s">
-        <v>365</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -9931,13 +9931,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D157" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E157" s="31" t="s">
         <v>366</v>
-      </c>
-      <c r="E157" s="31" t="s">
-        <v>367</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -9968,13 +9968,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D158" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E158" s="31" t="s">
         <v>368</v>
-      </c>
-      <c r="E158" s="31" t="s">
-        <v>369</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -10005,13 +10005,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D159" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="E159" s="31" t="s">
         <v>370</v>
-      </c>
-      <c r="E159" s="31" t="s">
-        <v>371</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -10042,13 +10042,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D160" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E160" s="31" t="s">
         <v>372</v>
-      </c>
-      <c r="E160" s="31" t="s">
-        <v>373</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -10079,13 +10079,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D161" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E161" s="31" t="s">
         <v>374</v>
-      </c>
-      <c r="E161" s="31" t="s">
-        <v>375</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -10116,13 +10116,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D162" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="E162" s="31" t="s">
         <v>376</v>
-      </c>
-      <c r="E162" s="31" t="s">
-        <v>377</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
@@ -10153,13 +10153,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D163" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E163" s="31" t="s">
         <v>378</v>
-      </c>
-      <c r="E163" s="31" t="s">
-        <v>379</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -10193,10 +10193,10 @@
         <v>67</v>
       </c>
       <c r="D164" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E164" s="31" t="s">
         <v>380</v>
-      </c>
-      <c r="E164" s="31" t="s">
-        <v>381</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -10230,10 +10230,10 @@
         <v>67</v>
       </c>
       <c r="D165" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E165" s="31" t="s">
         <v>382</v>
-      </c>
-      <c r="E165" s="31" t="s">
-        <v>383</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -10267,10 +10267,10 @@
         <v>55</v>
       </c>
       <c r="D166" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="E166" s="31" t="s">
         <v>384</v>
-      </c>
-      <c r="E166" s="31" t="s">
-        <v>385</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -10304,10 +10304,10 @@
         <v>55</v>
       </c>
       <c r="D167" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E167" s="31" t="s">
         <v>386</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>387</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -10341,10 +10341,10 @@
         <v>48</v>
       </c>
       <c r="D168" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>388</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>389</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -10378,10 +10378,10 @@
         <v>73</v>
       </c>
       <c r="D169" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="E169" s="31" t="s">
         <v>390</v>
-      </c>
-      <c r="E169" s="31" t="s">
-        <v>391</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10415,10 +10415,10 @@
         <v>73</v>
       </c>
       <c r="D170" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E170" s="31" t="s">
         <v>392</v>
-      </c>
-      <c r="E170" s="31" t="s">
-        <v>393</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10452,10 +10452,10 @@
         <v>71</v>
       </c>
       <c r="D171" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E171" s="31" t="s">
         <v>394</v>
-      </c>
-      <c r="E171" s="31" t="s">
-        <v>395</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10489,10 +10489,10 @@
         <v>71</v>
       </c>
       <c r="D172" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E172" s="31" t="s">
         <v>396</v>
-      </c>
-      <c r="E172" s="31" t="s">
-        <v>397</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10526,10 +10526,10 @@
         <v>69</v>
       </c>
       <c r="D173" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E173" s="31" t="s">
         <v>398</v>
-      </c>
-      <c r="E173" s="31" t="s">
-        <v>399</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10563,10 +10563,10 @@
         <v>69</v>
       </c>
       <c r="D174" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E174" s="31" t="s">
         <v>400</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>401</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10597,13 +10597,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D175" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="E175" s="31" t="s">
         <v>402</v>
-      </c>
-      <c r="E175" s="31" t="s">
-        <v>403</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10637,10 +10637,10 @@
         <v>67</v>
       </c>
       <c r="D176" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="E176" s="31" t="s">
         <v>404</v>
-      </c>
-      <c r="E176" s="31" t="s">
-        <v>405</v>
       </c>
       <c r="F176" s="30"/>
       <c r="G176" s="30"/>
@@ -10674,22 +10674,22 @@
         <v>59</v>
       </c>
       <c r="D177" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E177" s="31" t="s">
         <v>406</v>
-      </c>
-      <c r="E177" s="31" t="s">
-        <v>407</v>
       </c>
       <c r="F177" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G177" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="H177" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="H177" s="33" t="s">
+      <c r="I177" s="39" t="s">
         <v>409</v>
-      </c>
-      <c r="I177" s="39" t="s">
-        <v>410</v>
       </c>
       <c r="J177" s="34" t="s">
         <v>63</v>
@@ -10703,7 +10703,7 @@
         <v>63</v>
       </c>
       <c r="O177" s="34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P177" s="34" t="s">
         <v>63</v>
@@ -10715,7 +10715,7 @@
         <v>63</v>
       </c>
       <c r="S177" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T177" s="34"/>
       <c r="U177" s="30"/>
@@ -10735,10 +10735,10 @@
         <v>73</v>
       </c>
       <c r="D178" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="E178" s="31" t="s">
         <v>412</v>
-      </c>
-      <c r="E178" s="31" t="s">
-        <v>413</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10772,10 +10772,10 @@
         <v>69</v>
       </c>
       <c r="D179" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="E179" s="31" t="s">
         <v>414</v>
-      </c>
-      <c r="E179" s="31" t="s">
-        <v>415</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -10809,10 +10809,10 @@
         <v>71</v>
       </c>
       <c r="D180" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E180" s="31" t="s">
         <v>416</v>
-      </c>
-      <c r="E180" s="31" t="s">
-        <v>417</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -10846,10 +10846,10 @@
         <v>48</v>
       </c>
       <c r="D181" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="E181" s="31" t="s">
         <v>418</v>
-      </c>
-      <c r="E181" s="31" t="s">
-        <v>419</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -10883,10 +10883,10 @@
         <v>55</v>
       </c>
       <c r="D182" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="E182" s="31" t="s">
         <v>420</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>421</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -10920,10 +10920,10 @@
         <v>67</v>
       </c>
       <c r="D183" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="E183" s="31" t="s">
         <v>422</v>
-      </c>
-      <c r="E183" s="31" t="s">
-        <v>423</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -10957,10 +10957,10 @@
         <v>57</v>
       </c>
       <c r="D184" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="E184" s="31" t="s">
         <v>424</v>
-      </c>
-      <c r="E184" s="31" t="s">
-        <v>425</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
@@ -10991,13 +10991,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D185" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E185" s="31" t="s">
         <v>426</v>
-      </c>
-      <c r="E185" s="31" t="s">
-        <v>427</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11031,22 +11031,22 @@
         <v>59</v>
       </c>
       <c r="D186" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="E186" s="31" t="s">
         <v>428</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>429</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>46048</v>
       </c>
-      <c r="G186" s="39" t="s">
+      <c r="G186" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="H186" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="H186" s="39" t="s">
+      <c r="I186" s="34" t="s">
         <v>431</v>
-      </c>
-      <c r="I186" s="39" t="s">
-        <v>432</v>
       </c>
       <c r="J186" s="34" t="s">
         <v>63</v>
@@ -11078,10 +11078,10 @@
         <v>59</v>
       </c>
       <c r="D187" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="E187" s="31" t="s">
         <v>433</v>
-      </c>
-      <c r="E187" s="31" t="s">
-        <v>434</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -11091,10 +11091,10 @@
         <v>65</v>
       </c>
       <c r="K187" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="L187" s="34" t="s">
         <v>435</v>
-      </c>
-      <c r="L187" s="34" t="s">
-        <v>436</v>
       </c>
       <c r="M187" s="34"/>
       <c r="N187" s="34"/>
@@ -11121,10 +11121,10 @@
         <v>48</v>
       </c>
       <c r="D188" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="E188" s="31" t="s">
         <v>437</v>
-      </c>
-      <c r="E188" s="31" t="s">
-        <v>438</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -11158,10 +11158,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="E189" s="31" t="s">
         <v>439</v>
-      </c>
-      <c r="E189" s="31" t="s">
-        <v>440</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -11171,7 +11171,7 @@
         <v>65</v>
       </c>
       <c r="K189" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L189" s="34"/>
       <c r="M189" s="34"/>
@@ -11199,10 +11199,10 @@
         <v>67</v>
       </c>
       <c r="D190" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E190" s="31" t="s">
         <v>441</v>
-      </c>
-      <c r="E190" s="31" t="s">
-        <v>442</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -11236,10 +11236,10 @@
         <v>57</v>
       </c>
       <c r="D191" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="E191" s="31" t="s">
         <v>443</v>
-      </c>
-      <c r="E191" s="31" t="s">
-        <v>444</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -11273,10 +11273,10 @@
         <v>57</v>
       </c>
       <c r="D192" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="E192" s="31" t="s">
         <v>445</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>446</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -11310,10 +11310,10 @@
         <v>57</v>
       </c>
       <c r="D193" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="E193" s="43" t="s">
         <v>447</v>
-      </c>
-      <c r="E193" s="43" t="s">
-        <v>448</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="33"/>
@@ -15310,7 +15310,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J193 M10:N55 P10:R21 O22:R22 P23:R55 M56:O56 Q56:R56 M57:N193 P57:R193" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J187 M10:N55 P10:R21 O22:R22 P23:R55 M56:O56 Q56:R56 M57:N193 P57:R193 H186:I186 J188:J193" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15350,12 +15350,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15375,7 +15375,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15385,7 +15385,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -15571,7 +15571,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>457</v>

--- a/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
@@ -1757,13 +1757,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-03T13:14:21.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2772734ea5eef1593aa69a94d0254af8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.04b54ed75d7aa0a3bf6374dafe854e35641c6e5c2e6a72fc00ef0f196a7d67e8.28d18f1a99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-05T16:45:16.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6a2637346a46f3eed9087b2337ad9f64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.068903c591f88636d4e4d57ea4e5ebdd2ca921580ea8de264d7ced19993d71d1.845540672a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT26</t>
@@ -3960,7 +3960,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
-      <selection pane="bottomRight" activeCell="K68" activeCellId="0" sqref="K68"/>
+      <selection pane="bottomRight" activeCell="I187" activeCellId="0" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11037,15 +11037,15 @@
         <v>428</v>
       </c>
       <c r="F186" s="39" t="n">
-        <v>46048</v>
+        <v>46058</v>
       </c>
       <c r="G186" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="H186" s="34" t="s">
+      <c r="H186" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="I186" s="34" t="s">
+      <c r="I186" s="39" t="s">
         <v>431</v>
       </c>
       <c r="J186" s="34" t="s">
@@ -15310,7 +15310,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J187 M10:N55 P10:R21 O22:R22 P23:R55 M56:O56 Q56:R56 M57:N193 P57:R193 H186:I186 J188:J193" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J193 M10:N55 P10:R21 O22:R22 P23:R55 M56:O56 Q56:R56 M57:N193 P57:R193" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="552">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -475,6 +475,12 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-09T11:10:13.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b9eb222b5a9280b7d2ef2d0df6a705c1 </t>
+  </si>
+  <si>
     <t xml:space="preserve">CERT_VAC</t>
   </si>
   <si>
@@ -567,6 +573,12 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-09T11:10:26.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f72aee7118cf9b389673da6a15773aad </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
   </si>
   <si>
@@ -813,7 +825,7 @@
     <t xml:space="preserve">Errore nel CDA. Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'order' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected. </t>
   </si>
   <si>
-    <t xml:space="preserve">L’errore viene segnalato all’utente e nei log testuali dell’applicativo. Il medico o il back-office o in ultima istanza, l’assistenza tecnica. Risolvono il problema dell’NRE o dell’ACCESSION NUMBER mancante. Dopo la correzzione è possibile effettuare nuovamente l’invio del documento premendo nella UI, l’apposito pulsante “Valida documento FSE”</t>
+    <t xml:space="preserve">L’errore viene segnalato all’utente e nei log testuali dell’applicativo. Il medico o il back-office o in ultima istanza, l’assistenza tecnica. Risolvono il problema dell’NRE o dell’ACCESSION NUMBER mancante. Dopo la correzione è possibile effettuare nuovamente l’invio del documento premendo nella UI, l’apposito pulsante “Valida documento FSE”</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT14_KO</t>
@@ -1262,6 +1274,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-10T09:16:22.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d6c6a0c66a91d3d4bc22a421e186d99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.f5dad03ce9eb274cf3cbe4a017c5a605f51e5fbe6fec209b3f280cd921a865e7.6dadef043f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ] </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT9_KO</t>
   </si>
   <si>
@@ -1269,6 +1293,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-10T09:57:32.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ada14bca7a708bd45ac2fc06d498b37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.58ca3e60b9a645ba0a5d511fdcc729692035f66a596dc6f9b3573767e6b19181.42af86444c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'] </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT10_KO</t>
   </si>
   <si>
@@ -1283,6 +1319,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-10T13:50:58.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfab95ceb5dc473285ec1833de88f3c7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.b97cdf90132109cfc6c80299047a9017c829d411108f2ea0031737cd0e167a48.5a80e705d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'order' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected. </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT14_KO</t>
   </si>
   <si>
@@ -1290,6 +1338,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-10T15:08:25.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c21fd35315abcf8471b70f84def20f54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.921921c137a8fc65b182528e91b70190101abd6f6ba4973ad87fbb579e7e8611.b7f8205f3e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":effectiveTime}'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
   </si>
   <si>
@@ -1297,6 +1357,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-11T09:56:48.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a613795733da25788096cf7f9695171d </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7799df3193d1c86779f23c593be1b31d7acd8441a322bf8507f2e918ffc6f297.4cbad6b30e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text'] </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT16_KO</t>
   </si>
   <si>
@@ -1304,6 +1376,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-11T11:04:29.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9eab6043663f2446a63e4e7a69dc661a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7c6db5dd9aa3fbf05e0d65f9303f1c61867e2f95ec4c3a735df1c4a7a441580d.5eec9a816e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text'] </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT17_KO</t>
   </si>
   <si>
@@ -1311,6 +1395,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-16T09:44:23.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75dda1016606895bbd0e57d4db6fb240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.1e7e203c56bd295182cd7364ccd513a07373aa132e8824e0041a2edd3b56904b.3914f37836^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT18_KO</t>
   </si>
   <si>
@@ -1318,6 +1414,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-16T11:41:23.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d083cbfba9a5b9bef5e189ee5b263da2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.fd3d31333e3ba877fe21a5d6bb80eacb923adb91b26e047a302551d5005df668.812a92e875^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore Semantico. [ERRORE-b26| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato] </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT19_KO</t>
   </si>
   <si>
@@ -1325,6 +1433,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-16T13:40:09.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">511341b0febde2d2709c65774eb9083c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.30307b1065cfdb413e558f23b40623aabcbd9852f3147ba0fd026c87c7c8f542.898f92d231^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code'] </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT20_KO</t>
   </si>
   <si>
@@ -1332,6 +1452,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-16T14:06:50.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70b65c6f08b95005d127b2ec6503000e </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2efa2adbf0fbc760a62d4bbff0ac32c8fa9b0c7a7342782c8f9b70a455c705f7.597c214a74^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-b53| Sotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato ]</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT21_KO</t>
   </si>
   <si>
@@ -1339,6 +1471,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-16T15:37:30.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">934db73ca733fd59a4c3595f6bc0740f </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.4af90d65b142fda056578d305c8738909fa6dafa0e3b7b3481ccdf7f8c9ea68d.d8678e9c2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-b57| Sotto-sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT22_KO</t>
   </si>
   <si>
@@ -1346,11 +1490,35 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-16T16:28:00.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a45162f8d415d4c725f1e1b46a7b1804 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.9391069a4bf2d4f280ef720ab3c207a2c7d7df69d4589346402e2771734b88b1.a6df52449e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 666.6] </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT23_KO</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-02-17T10:45:05.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ac3dd6ea990b44cb8dfbbd19a9668d7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.4f646b47dbbee1178fe83872e85c95c20fbac725bff71053194628b6c691ecda.d061b5b158^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore semantico. [ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice \"S\" ] </t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT6_KO</t>
@@ -1590,11 +1758,23 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-18T17:34:45.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf07a9b5f8f4093e1a0edb1371d9633e </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.4892d70ce75706dfe1a5ba06a8710a5d7581c0b09baf0a551fb009d8237d217f.298afb83d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LDO_CT17</t>
@@ -1675,6 +1855,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-17T11:39:53.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8b548ba8a236cd3f9e3156ee71bec63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.00b9ca115642264b61cbe4ae3429a07c5fc7bc3657ac87a1ba42d555b219527c.7a471e9ee1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 666.6]</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT24_KO</t>
   </si>
   <si>
@@ -1736,6 +1928,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-02-17T14:51:18.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69edbe38fc2566b572bda5f8fc1b7969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a4c5c2a9b970270f441d5d91a414c870e2471a0387235ee91a42bb44b698e57f.91eccc46b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected. </t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT22_KO</t>
   </si>
   <si>
@@ -1798,6 +2002,18 @@
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-02-17T15:01:43.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e85fadb9a77191e76dc830a1824fd9f3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a137364aee8404a5353a75b6ee3d88d9a08ee153e55bd8edbeed118597e990fb.4802a236ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: X]</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT23</t>
@@ -1824,9 +2040,6 @@
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzato di default</t>
@@ -1931,7 +2144,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,6 +2252,26 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2052,7 +2285,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2068,13 +2301,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
   </fills>
@@ -2244,7 +2483,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2413,7 +2652,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2425,7 +2692,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2471,7 +2738,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2507,6 +2774,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFD4EA6B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8F2A1"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -2556,8 +2831,8 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -2786,7 +3061,7 @@
   </sheetPr>
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +3153,7 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3955,12 +4230,12 @@
   </sheetPr>
   <dimension ref="A1:W750"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A68" activeCellId="0" sqref="A68"/>
-      <selection pane="bottomRight" activeCell="I187" activeCellId="0" sqref="I187"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
+      <selection pane="bottomRight" activeCell="I164" activeCellId="0" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4393,7 +4668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="n">
         <v>31</v>
       </c>
@@ -4452,7 +4727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>32</v>
       </c>
@@ -4468,20 +4743,42 @@
       <c r="E15" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="F15" s="33" t="n">
+        <v>46062</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="I15" s="39"/>
-      <c r="J15" s="34"/>
+      <c r="J15" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
+      <c r="M15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35"/>
       <c r="V15" s="36"/>
@@ -4497,10 +4794,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>53</v>
@@ -4534,10 +4831,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>53</v>
@@ -4571,10 +4868,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>53</v>
@@ -4611,10 +4908,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -4648,10 +4945,10 @@
         <v>55</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -4685,10 +4982,10 @@
         <v>57</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -4711,7 +5008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="n">
         <v>39</v>
       </c>
@@ -4722,19 +5019,19 @@
         <v>59</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="33" t="n">
         <v>46045</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="34" t="s">
@@ -4749,7 +5046,7 @@
         <v>63</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>65</v>
@@ -4770,7 +5067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>40</v>
       </c>
@@ -4781,25 +5078,47 @@
         <v>67</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="F23" s="33" t="n">
+        <v>46062</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="I23" s="39"/>
-      <c r="J23" s="34"/>
+      <c r="J23" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
+      <c r="M23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S23" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="T23" s="34"/>
       <c r="U23" s="35"/>
       <c r="V23" s="36"/>
@@ -4815,13 +5134,13 @@
         <v>47</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -4852,13 +5171,13 @@
         <v>47</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -4889,13 +5208,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -4929,10 +5248,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -4968,10 +5287,10 @@
         <v>55</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -5007,10 +5326,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -5035,7 +5354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="n">
         <v>47</v>
       </c>
@@ -5046,10 +5365,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="33" t="n">
         <v>46045</v>
@@ -5069,7 +5388,7 @@
         <v>63</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P30" s="34" t="s">
         <v>63</v>
@@ -5081,7 +5400,7 @@
         <v>63</v>
       </c>
       <c r="S30" s="41" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35"/>
@@ -5090,7 +5409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>48</v>
       </c>
@@ -5101,29 +5420,45 @@
         <v>67</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="33"/>
+        <v>92</v>
+      </c>
+      <c r="F31" s="33" t="n">
+        <v>46062</v>
+      </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="34"/>
+      <c r="J31" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
+      <c r="M31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S31" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T31" s="34"/>
-      <c r="U31" s="35" t="s">
-        <v>63</v>
-      </c>
+      <c r="U31" s="35"/>
       <c r="V31" s="36"/>
       <c r="W31" s="34" t="s">
         <v>54</v>
@@ -5137,13 +5472,13 @@
         <v>47</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -5176,13 +5511,13 @@
         <v>47</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -5215,13 +5550,13 @@
         <v>47</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -5257,10 +5592,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5294,10 +5629,10 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5331,10 +5666,10 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5368,10 +5703,10 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5405,10 +5740,10 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5442,10 +5777,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5479,10 +5814,10 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5516,10 +5851,10 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5553,10 +5888,10 @@
         <v>55</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5590,10 +5925,10 @@
         <v>55</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5627,10 +5962,10 @@
         <v>55</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5664,10 +5999,10 @@
         <v>55</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5701,10 +6036,10 @@
         <v>55</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5738,10 +6073,10 @@
         <v>55</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5775,10 +6110,10 @@
         <v>55</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5812,10 +6147,10 @@
         <v>55</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5849,10 +6184,10 @@
         <v>55</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5886,10 +6221,10 @@
         <v>55</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5912,7 +6247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="30" t="n">
         <v>76</v>
       </c>
@@ -5923,10 +6258,10 @@
         <v>59</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -5936,7 +6271,7 @@
         <v>65</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
@@ -5953,7 +6288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="30" t="n">
         <v>78</v>
       </c>
@@ -5964,22 +6299,22 @@
         <v>59</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F54" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H54" s="39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J54" s="34" t="s">
         <v>63</v>
@@ -5993,7 +6328,7 @@
         <v>63</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P54" s="34" t="s">
         <v>63</v>
@@ -6005,7 +6340,7 @@
         <v>63</v>
       </c>
       <c r="S54" s="41" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T54" s="34"/>
       <c r="U54" s="35"/>
@@ -6014,7 +6349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="30" t="n">
         <v>79</v>
       </c>
@@ -6025,22 +6360,22 @@
         <v>59</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F55" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>63</v>
@@ -6054,7 +6389,7 @@
         <v>63</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P55" s="34" t="s">
         <v>63</v>
@@ -6066,7 +6401,7 @@
         <v>63</v>
       </c>
       <c r="S55" s="41" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T55" s="34"/>
       <c r="U55" s="35"/>
@@ -6075,7 +6410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="30" t="n">
         <v>80</v>
       </c>
@@ -6086,10 +6421,10 @@
         <v>59</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -6099,7 +6434,7 @@
         <v>65</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
@@ -6115,7 +6450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="30" t="n">
         <v>81</v>
       </c>
@@ -6126,10 +6461,10 @@
         <v>59</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -6139,7 +6474,7 @@
         <v>65</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
@@ -6156,7 +6491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="30" t="n">
         <v>83</v>
       </c>
@@ -6167,22 +6502,22 @@
         <v>59</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F58" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J58" s="34" t="s">
         <v>63</v>
@@ -6196,7 +6531,7 @@
         <v>63</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P58" s="34" t="s">
         <v>63</v>
@@ -6208,7 +6543,7 @@
         <v>63</v>
       </c>
       <c r="S58" s="41" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T58" s="34"/>
       <c r="U58" s="35"/>
@@ -6217,7 +6552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="30" t="n">
         <v>84</v>
       </c>
@@ -6228,10 +6563,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -6241,7 +6576,7 @@
         <v>65</v>
       </c>
       <c r="K59" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L59" s="34"/>
       <c r="M59" s="34"/>
@@ -6258,7 +6593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="30" t="n">
         <v>85</v>
       </c>
@@ -6269,10 +6604,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -6282,7 +6617,7 @@
         <v>65</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34"/>
@@ -6299,7 +6634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="30" t="n">
         <v>86</v>
       </c>
@@ -6310,22 +6645,22 @@
         <v>59</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F61" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J61" s="34" t="s">
         <v>63</v>
@@ -6339,7 +6674,7 @@
         <v>63</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P61" s="34" t="s">
         <v>63</v>
@@ -6351,7 +6686,7 @@
         <v>63</v>
       </c>
       <c r="S61" s="41" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="T61" s="34"/>
       <c r="U61" s="35"/>
@@ -6360,7 +6695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="30" t="n">
         <v>87</v>
       </c>
@@ -6371,10 +6706,10 @@
         <v>59</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -6384,7 +6719,7 @@
         <v>65</v>
       </c>
       <c r="K62" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="34"/>
@@ -6401,7 +6736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="30" t="n">
         <v>88</v>
       </c>
@@ -6412,10 +6747,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6425,7 +6760,7 @@
         <v>65</v>
       </c>
       <c r="K63" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L63" s="34"/>
       <c r="M63" s="34"/>
@@ -6442,7 +6777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="n">
         <v>89</v>
       </c>
@@ -6453,10 +6788,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6466,7 +6801,7 @@
         <v>65</v>
       </c>
       <c r="K64" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L64" s="34"/>
       <c r="M64" s="34"/>
@@ -6483,7 +6818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="n">
         <v>90</v>
       </c>
@@ -6494,10 +6829,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6507,7 +6842,7 @@
         <v>65</v>
       </c>
       <c r="K65" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34"/>
@@ -6524,7 +6859,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="n">
         <v>91</v>
       </c>
@@ -6535,10 +6870,10 @@
         <v>59</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6548,7 +6883,7 @@
         <v>65</v>
       </c>
       <c r="K66" s="34" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
@@ -6565,7 +6900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="30" t="n">
         <v>92</v>
       </c>
@@ -6576,22 +6911,22 @@
         <v>59</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F67" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H67" s="39" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J67" s="34" t="s">
         <v>63</v>
@@ -6605,7 +6940,7 @@
         <v>63</v>
       </c>
       <c r="O67" s="34" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P67" s="34" t="s">
         <v>63</v>
@@ -6617,7 +6952,7 @@
         <v>63</v>
       </c>
       <c r="S67" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="T67" s="34"/>
       <c r="U67" s="35"/>
@@ -6626,7 +6961,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="n">
         <v>93</v>
       </c>
@@ -6637,10 +6972,10 @@
         <v>59</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6650,7 +6985,7 @@
         <v>65</v>
       </c>
       <c r="K68" s="34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
@@ -6675,13 +7010,13 @@
         <v>47</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6712,13 +7047,13 @@
         <v>47</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6749,13 +7084,13 @@
         <v>47</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6786,13 +7121,13 @@
         <v>47</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6823,13 +7158,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6860,13 +7195,13 @@
         <v>47</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6897,13 +7232,13 @@
         <v>47</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6934,13 +7269,13 @@
         <v>47</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6971,13 +7306,13 @@
         <v>47</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -7008,13 +7343,13 @@
         <v>47</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -7045,13 +7380,13 @@
         <v>47</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -7082,13 +7417,13 @@
         <v>47</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -7119,13 +7454,13 @@
         <v>47</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -7156,13 +7491,13 @@
         <v>47</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -7193,13 +7528,13 @@
         <v>47</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -7230,13 +7565,13 @@
         <v>47</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -7267,13 +7602,13 @@
         <v>47</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -7304,13 +7639,13 @@
         <v>47</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -7341,13 +7676,13 @@
         <v>47</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -7378,13 +7713,13 @@
         <v>47</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -7415,13 +7750,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7452,13 +7787,13 @@
         <v>47</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7489,13 +7824,13 @@
         <v>47</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7526,13 +7861,13 @@
         <v>47</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7563,13 +7898,13 @@
         <v>47</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7600,13 +7935,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7637,13 +7972,13 @@
         <v>47</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7674,13 +8009,13 @@
         <v>47</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7711,13 +8046,13 @@
         <v>47</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7748,13 +8083,13 @@
         <v>47</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7785,13 +8120,13 @@
         <v>47</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7822,13 +8157,13 @@
         <v>47</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7859,13 +8194,13 @@
         <v>47</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7896,13 +8231,13 @@
         <v>47</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7933,13 +8268,13 @@
         <v>47</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7970,13 +8305,13 @@
         <v>47</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -8007,13 +8342,13 @@
         <v>47</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -8044,13 +8379,13 @@
         <v>47</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -8081,13 +8416,13 @@
         <v>47</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -8118,13 +8453,13 @@
         <v>47</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -8155,13 +8490,13 @@
         <v>47</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -8192,13 +8527,13 @@
         <v>47</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -8229,13 +8564,13 @@
         <v>47</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -8266,13 +8601,13 @@
         <v>47</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -8303,13 +8638,13 @@
         <v>47</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -8340,13 +8675,13 @@
         <v>47</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -8377,13 +8712,13 @@
         <v>47</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -8406,7 +8741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="30" t="n">
         <v>152</v>
       </c>
@@ -8417,17 +8752,21 @@
         <v>67</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
       <c r="H116" s="33"/>
       <c r="I116" s="39"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="34"/>
+      <c r="J116" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K116" s="34" t="s">
+        <v>140</v>
+      </c>
       <c r="L116" s="34"/>
       <c r="M116" s="34"/>
       <c r="N116" s="34"/>
@@ -8443,7 +8782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="30" t="n">
         <v>154</v>
       </c>
@@ -8454,25 +8793,49 @@
         <v>67</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="34"/>
+        <v>291</v>
+      </c>
+      <c r="F117" s="33" t="n">
+        <v>46063</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="H117" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="I117" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J117" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K117" s="34"/>
       <c r="L117" s="34"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="34"/>
-      <c r="R117" s="34"/>
-      <c r="S117" s="34"/>
+      <c r="M117" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N117" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O117" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="P117" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q117" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R117" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S117" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T117" s="34"/>
       <c r="U117" s="35"/>
       <c r="V117" s="36"/>
@@ -8480,7 +8843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="30" t="n">
         <v>155</v>
       </c>
@@ -8491,25 +8854,49 @@
         <v>67</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="34"/>
+        <v>297</v>
+      </c>
+      <c r="F118" s="33" t="n">
+        <v>46063</v>
+      </c>
+      <c r="G118" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="H118" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="I118" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J118" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K118" s="34"/>
       <c r="L118" s="34"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
-      <c r="P118" s="34"/>
-      <c r="Q118" s="34"/>
-      <c r="R118" s="34"/>
-      <c r="S118" s="34"/>
+      <c r="M118" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N118" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O118" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="P118" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q118" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R118" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S118" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T118" s="34"/>
       <c r="U118" s="35"/>
       <c r="V118" s="36"/>
@@ -8517,7 +8904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="30" t="n">
         <v>156</v>
       </c>
@@ -8528,17 +8915,21 @@
         <v>67</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
       <c r="H119" s="33"/>
       <c r="I119" s="39"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="34"/>
+      <c r="J119" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K119" s="34" t="s">
+        <v>193</v>
+      </c>
       <c r="L119" s="34"/>
       <c r="M119" s="34"/>
       <c r="N119" s="34"/>
@@ -8554,7 +8945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="30" t="n">
         <v>159</v>
       </c>
@@ -8565,25 +8956,49 @@
         <v>67</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="34"/>
+        <v>305</v>
+      </c>
+      <c r="F120" s="33" t="n">
+        <v>46063</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="H120" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="I120" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J120" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K120" s="34"/>
       <c r="L120" s="34"/>
-      <c r="M120" s="34"/>
-      <c r="N120" s="34"/>
-      <c r="O120" s="34"/>
-      <c r="P120" s="34"/>
-      <c r="Q120" s="34"/>
-      <c r="R120" s="34"/>
-      <c r="S120" s="34"/>
+      <c r="M120" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N120" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O120" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="P120" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q120" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R120" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S120" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T120" s="34"/>
       <c r="U120" s="35"/>
       <c r="V120" s="36"/>
@@ -8591,7 +9006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="30" t="n">
         <v>160</v>
       </c>
@@ -8602,25 +9017,49 @@
         <v>67</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="39"/>
-      <c r="J121" s="34"/>
+        <v>311</v>
+      </c>
+      <c r="F121" s="33" t="n">
+        <v>46063</v>
+      </c>
+      <c r="G121" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="H121" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="I121" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="J121" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K121" s="34"/>
       <c r="L121" s="34"/>
-      <c r="M121" s="34"/>
-      <c r="N121" s="34"/>
-      <c r="O121" s="34"/>
-      <c r="P121" s="34"/>
-      <c r="Q121" s="34"/>
-      <c r="R121" s="34"/>
-      <c r="S121" s="34"/>
+      <c r="M121" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N121" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O121" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="P121" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q121" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R121" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S121" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T121" s="34"/>
       <c r="U121" s="35"/>
       <c r="V121" s="36"/>
@@ -8628,7 +9067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="30" t="n">
         <v>161</v>
       </c>
@@ -8639,25 +9078,49 @@
         <v>67</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="34"/>
+        <v>317</v>
+      </c>
+      <c r="F122" s="33" t="n">
+        <v>46064</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="H122" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="I122" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J122" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K122" s="34"/>
       <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="34"/>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="34"/>
-      <c r="S122" s="34"/>
+      <c r="M122" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N122" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O122" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="P122" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q122" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R122" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S122" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T122" s="34"/>
       <c r="U122" s="35"/>
       <c r="V122" s="36"/>
@@ -8665,7 +9128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="30" t="n">
         <v>162</v>
       </c>
@@ -8676,25 +9139,49 @@
         <v>67</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="39"/>
-      <c r="J123" s="34"/>
+        <v>323</v>
+      </c>
+      <c r="F123" s="33" t="n">
+        <v>46064</v>
+      </c>
+      <c r="G123" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="H123" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="I123" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="J123" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K123" s="34"/>
       <c r="L123" s="34"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="34"/>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="34"/>
-      <c r="S123" s="34"/>
+      <c r="M123" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N123" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O123" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="P123" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q123" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R123" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S123" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T123" s="34"/>
       <c r="U123" s="35"/>
       <c r="V123" s="36"/>
@@ -8702,7 +9189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="30" t="n">
         <v>163</v>
       </c>
@@ -8713,25 +9200,49 @@
         <v>67</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="39"/>
-      <c r="J124" s="34"/>
+        <v>329</v>
+      </c>
+      <c r="F124" s="33" t="n">
+        <v>46069</v>
+      </c>
+      <c r="G124" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="H124" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="I124" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="J124" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K124" s="34"/>
       <c r="L124" s="34"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="34"/>
-      <c r="O124" s="34"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="34"/>
-      <c r="R124" s="34"/>
-      <c r="S124" s="34"/>
+      <c r="M124" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N124" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O124" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="P124" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q124" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R124" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S124" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T124" s="34"/>
       <c r="U124" s="35"/>
       <c r="V124" s="36"/>
@@ -8739,7 +9250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="30" t="n">
         <v>164</v>
       </c>
@@ -8750,25 +9261,49 @@
         <v>67</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="39"/>
-      <c r="J125" s="34"/>
+        <v>335</v>
+      </c>
+      <c r="F125" s="33" t="n">
+        <v>46069</v>
+      </c>
+      <c r="G125" s="42" t="s">
+        <v>336</v>
+      </c>
+      <c r="H125" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="I125" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J125" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K125" s="34"/>
       <c r="L125" s="34"/>
-      <c r="M125" s="34"/>
-      <c r="N125" s="34"/>
-      <c r="O125" s="34"/>
-      <c r="P125" s="34"/>
-      <c r="Q125" s="34"/>
-      <c r="R125" s="34"/>
-      <c r="S125" s="34"/>
+      <c r="M125" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N125" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O125" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="P125" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q125" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R125" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S125" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T125" s="34"/>
       <c r="U125" s="35"/>
       <c r="V125" s="36"/>
@@ -8776,7 +9311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="30" t="n">
         <v>165</v>
       </c>
@@ -8787,25 +9322,49 @@
         <v>67</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="34"/>
+        <v>341</v>
+      </c>
+      <c r="F126" s="33" t="n">
+        <v>46069</v>
+      </c>
+      <c r="G126" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="H126" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="I126" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J126" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K126" s="34"/>
       <c r="L126" s="34"/>
-      <c r="M126" s="34"/>
-      <c r="N126" s="34"/>
-      <c r="O126" s="34"/>
-      <c r="P126" s="34"/>
-      <c r="Q126" s="34"/>
-      <c r="R126" s="34"/>
-      <c r="S126" s="34"/>
+      <c r="M126" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N126" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O126" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="P126" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q126" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R126" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S126" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T126" s="34"/>
       <c r="U126" s="35"/>
       <c r="V126" s="36"/>
@@ -8813,7 +9372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="30" t="n">
         <v>166</v>
       </c>
@@ -8824,25 +9383,49 @@
         <v>67</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="39"/>
-      <c r="J127" s="34"/>
+        <v>347</v>
+      </c>
+      <c r="F127" s="33" t="n">
+        <v>46069</v>
+      </c>
+      <c r="G127" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="H127" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="I127" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="J127" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K127" s="34"/>
       <c r="L127" s="34"/>
-      <c r="M127" s="34"/>
-      <c r="N127" s="34"/>
-      <c r="O127" s="34"/>
-      <c r="P127" s="34"/>
-      <c r="Q127" s="34"/>
-      <c r="R127" s="34"/>
-      <c r="S127" s="34"/>
+      <c r="M127" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N127" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O127" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="P127" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q127" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R127" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S127" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T127" s="34"/>
       <c r="U127" s="35"/>
       <c r="V127" s="36"/>
@@ -8850,7 +9433,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="30" t="n">
         <v>167</v>
       </c>
@@ -8861,25 +9444,49 @@
         <v>67</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="39"/>
-      <c r="J128" s="34"/>
+        <v>353</v>
+      </c>
+      <c r="F128" s="33" t="n">
+        <v>46069</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="H128" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="I128" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J128" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K128" s="34"/>
       <c r="L128" s="34"/>
-      <c r="M128" s="34"/>
-      <c r="N128" s="34"/>
-      <c r="O128" s="34"/>
-      <c r="P128" s="34"/>
-      <c r="Q128" s="34"/>
-      <c r="R128" s="34"/>
-      <c r="S128" s="34"/>
+      <c r="M128" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N128" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O128" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="P128" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q128" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R128" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S128" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T128" s="34"/>
       <c r="U128" s="35"/>
       <c r="V128" s="36"/>
@@ -8887,7 +9494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="30" t="n">
         <v>168</v>
       </c>
@@ -8898,25 +9505,49 @@
         <v>67</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="39"/>
-      <c r="J129" s="34"/>
+        <v>359</v>
+      </c>
+      <c r="F129" s="33" t="n">
+        <v>46069</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="H129" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="I129" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J129" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K129" s="34"/>
       <c r="L129" s="34"/>
-      <c r="M129" s="34"/>
-      <c r="N129" s="34"/>
-      <c r="O129" s="34"/>
-      <c r="P129" s="34"/>
-      <c r="Q129" s="34"/>
-      <c r="R129" s="34"/>
-      <c r="S129" s="34"/>
+      <c r="M129" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N129" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O129" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="P129" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q129" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R129" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S129" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T129" s="34"/>
       <c r="U129" s="35"/>
       <c r="V129" s="36"/>
@@ -8924,7 +9555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="30" t="n">
         <v>169</v>
       </c>
@@ -8935,25 +9566,49 @@
         <v>67</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="34"/>
+        <v>365</v>
+      </c>
+      <c r="F130" s="33" t="n">
+        <v>46070</v>
+      </c>
+      <c r="G130" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="H130" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="I130" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="J130" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K130" s="34"/>
       <c r="L130" s="34"/>
-      <c r="M130" s="34"/>
-      <c r="N130" s="34"/>
-      <c r="O130" s="34"/>
-      <c r="P130" s="34"/>
-      <c r="Q130" s="34"/>
-      <c r="R130" s="34"/>
-      <c r="S130" s="34"/>
+      <c r="M130" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N130" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O130" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="P130" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q130" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R130" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S130" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T130" s="34"/>
       <c r="U130" s="35"/>
       <c r="V130" s="36"/>
@@ -8972,10 +9627,10 @@
         <v>57</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -9009,10 +9664,10 @@
         <v>57</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -9046,10 +9701,10 @@
         <v>57</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -9083,10 +9738,10 @@
         <v>57</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -9120,10 +9775,10 @@
         <v>57</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -9157,10 +9812,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -9194,10 +9849,10 @@
         <v>57</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -9231,10 +9886,10 @@
         <v>57</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -9268,10 +9923,10 @@
         <v>57</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -9305,10 +9960,10 @@
         <v>57</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -9342,10 +9997,10 @@
         <v>57</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -9379,10 +10034,10 @@
         <v>57</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -9416,10 +10071,10 @@
         <v>57</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -9453,10 +10108,10 @@
         <v>57</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -9490,10 +10145,10 @@
         <v>57</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -9527,10 +10182,10 @@
         <v>48</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9564,10 +10219,10 @@
         <v>48</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9598,13 +10253,13 @@
         <v>47</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9635,13 +10290,13 @@
         <v>47</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9672,13 +10327,13 @@
         <v>47</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -9709,10 +10364,10 @@
         <v>47</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="E151" s="38" t="s">
         <v>53</v>
@@ -9746,13 +10401,13 @@
         <v>47</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -9783,13 +10438,13 @@
         <v>47</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -9820,13 +10475,13 @@
         <v>47</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -9857,13 +10512,13 @@
         <v>47</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -9894,13 +10549,13 @@
         <v>47</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -9931,13 +10586,13 @@
         <v>47</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -9968,13 +10623,13 @@
         <v>47</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -10005,13 +10660,13 @@
         <v>47</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -10042,13 +10697,13 @@
         <v>47</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -10079,13 +10734,13 @@
         <v>47</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -10116,13 +10771,13 @@
         <v>47</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
@@ -10153,13 +10808,13 @@
         <v>47</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -10182,27 +10837,37 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="30" t="n">
         <v>448</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C164" s="37" t="s">
+      <c r="C164" s="46" t="s">
         <v>67</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="34"/>
+        <v>436</v>
+      </c>
+      <c r="F164" s="33" t="n">
+        <v>46071</v>
+      </c>
+      <c r="G164" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="H164" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="I164" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="J164" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K164" s="34"/>
       <c r="L164" s="34"/>
       <c r="M164" s="34"/>
@@ -10219,7 +10884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="30" t="n">
         <v>449</v>
       </c>
@@ -10230,17 +10895,23 @@
         <v>67</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="F165" s="33"/>
+        <v>441</v>
+      </c>
+      <c r="F165" s="33" t="n">
+        <v>46071</v>
+      </c>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="39"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="34"/>
+      <c r="J165" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K165" s="34" t="s">
+        <v>442</v>
+      </c>
       <c r="L165" s="34"/>
       <c r="M165" s="34"/>
       <c r="N165" s="34"/>
@@ -10267,10 +10938,10 @@
         <v>55</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -10304,10 +10975,10 @@
         <v>55</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -10341,10 +11012,10 @@
         <v>48</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -10375,13 +11046,13 @@
         <v>47</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10412,13 +11083,13 @@
         <v>47</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10449,13 +11120,13 @@
         <v>47</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10486,13 +11157,13 @@
         <v>47</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10523,13 +11194,13 @@
         <v>47</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10560,13 +11231,13 @@
         <v>47</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10597,13 +11268,13 @@
         <v>47</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10626,7 +11297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="30" t="n">
         <v>461</v>
       </c>
@@ -10637,25 +11308,49 @@
         <v>67</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
-      <c r="I176" s="30"/>
-      <c r="J176" s="34"/>
+        <v>464</v>
+      </c>
+      <c r="F176" s="33" t="n">
+        <v>46070</v>
+      </c>
+      <c r="G176" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="H176" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="I176" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="J176" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K176" s="34"/>
       <c r="L176" s="30"/>
-      <c r="M176" s="34"/>
-      <c r="N176" s="34"/>
-      <c r="O176" s="30"/>
-      <c r="P176" s="34"/>
-      <c r="Q176" s="34"/>
-      <c r="R176" s="34"/>
-      <c r="S176" s="30"/>
+      <c r="M176" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N176" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O176" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="P176" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q176" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R176" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S176" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T176" s="34"/>
       <c r="U176" s="30"/>
       <c r="V176" s="30"/>
@@ -10663,7 +11358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="30" t="n">
         <v>462</v>
       </c>
@@ -10674,22 +11369,22 @@
         <v>59</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="F177" s="33" t="n">
         <v>46048</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="H177" s="33" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="I177" s="39" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="J177" s="34" t="s">
         <v>63</v>
@@ -10703,7 +11398,7 @@
         <v>63</v>
       </c>
       <c r="O177" s="34" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="P177" s="34" t="s">
         <v>63</v>
@@ -10715,7 +11410,7 @@
         <v>63</v>
       </c>
       <c r="S177" s="41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="T177" s="34"/>
       <c r="U177" s="30"/>
@@ -10732,13 +11427,13 @@
         <v>47</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10769,13 +11464,13 @@
         <v>47</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -10806,13 +11501,13 @@
         <v>47</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -10846,10 +11541,10 @@
         <v>48</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>418</v>
+        <v>482</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -10883,10 +11578,10 @@
         <v>55</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -10909,7 +11604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="30" t="n">
         <v>468</v>
       </c>
@@ -10920,25 +11615,49 @@
         <v>67</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>422</v>
-      </c>
-      <c r="F183" s="30"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
-      <c r="I183" s="30"/>
-      <c r="J183" s="34"/>
+        <v>486</v>
+      </c>
+      <c r="F183" s="33" t="n">
+        <v>46070</v>
+      </c>
+      <c r="G183" s="48" t="s">
+        <v>487</v>
+      </c>
+      <c r="H183" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="I183" s="43" t="s">
+        <v>489</v>
+      </c>
+      <c r="J183" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K183" s="34"/>
       <c r="L183" s="30"/>
-      <c r="M183" s="34"/>
-      <c r="N183" s="34"/>
-      <c r="O183" s="30"/>
-      <c r="P183" s="34"/>
-      <c r="Q183" s="34"/>
-      <c r="R183" s="34"/>
-      <c r="S183" s="30"/>
+      <c r="M183" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N183" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O183" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="P183" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q183" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R183" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S183" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T183" s="34"/>
       <c r="U183" s="30"/>
       <c r="V183" s="30"/>
@@ -10957,10 +11676,10 @@
         <v>57</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
@@ -10991,13 +11710,13 @@
         <v>47</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -11020,33 +11739,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" s="1" customFormat="true" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" s="1" customFormat="true" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="30" t="n">
         <v>471</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="42" t="s">
+      <c r="C186" s="49" t="s">
         <v>59</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="F186" s="39" t="n">
         <v>46058</v>
       </c>
       <c r="G186" s="33" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="H186" s="33" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="I186" s="39" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="J186" s="34" t="s">
         <v>63</v>
@@ -11067,7 +11786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="true" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" s="1" customFormat="true" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="30" t="n">
         <v>472</v>
       </c>
@@ -11078,10 +11797,10 @@
         <v>59</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -11091,10 +11810,10 @@
         <v>65</v>
       </c>
       <c r="K187" s="34" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="L187" s="34" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="M187" s="34"/>
       <c r="N187" s="34"/>
@@ -11121,10 +11840,10 @@
         <v>48</v>
       </c>
       <c r="D188" s="37" t="s">
-        <v>436</v>
+        <v>504</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -11147,7 +11866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="89.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="89.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="30" t="n">
         <v>474</v>
       </c>
@@ -11158,10 +11877,10 @@
         <v>59</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>439</v>
+        <v>507</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -11171,7 +11890,7 @@
         <v>65</v>
       </c>
       <c r="K189" s="34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L189" s="34"/>
       <c r="M189" s="34"/>
@@ -11188,7 +11907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="127.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="30" t="n">
         <v>475</v>
       </c>
@@ -11199,25 +11918,49 @@
         <v>67</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="39"/>
-      <c r="J190" s="34"/>
+        <v>509</v>
+      </c>
+      <c r="F190" s="33" t="n">
+        <v>46070</v>
+      </c>
+      <c r="G190" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="H190" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="I190" s="39" t="s">
+        <v>512</v>
+      </c>
+      <c r="J190" s="34" t="s">
+        <v>63</v>
+      </c>
       <c r="K190" s="34"/>
       <c r="L190" s="34"/>
-      <c r="M190" s="34"/>
-      <c r="N190" s="34"/>
-      <c r="O190" s="34"/>
-      <c r="P190" s="34"/>
-      <c r="Q190" s="34"/>
-      <c r="R190" s="34"/>
-      <c r="S190" s="34"/>
+      <c r="M190" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N190" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O190" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="P190" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q190" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R190" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="S190" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="T190" s="34"/>
       <c r="U190" s="35"/>
       <c r="V190" s="36"/>
@@ -11236,10 +11979,10 @@
         <v>57</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>442</v>
+        <v>514</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -11273,10 +12016,10 @@
         <v>57</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>444</v>
+        <v>516</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>445</v>
+        <v>517</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -11299,7 +12042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="102.55" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="30" t="n">
         <v>478</v>
       </c>
@@ -11310,10 +12053,10 @@
         <v>57</v>
       </c>
       <c r="D193" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="E193" s="43" t="s">
-        <v>447</v>
+        <v>518</v>
+      </c>
+      <c r="E193" s="50" t="s">
+        <v>519</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="33"/>
@@ -15296,7 +16039,7 @@
   <autoFilter ref="A9:W193">
     <filterColumn colId="2">
       <filters>
-        <filter val="RAD"/>
+        <filter val="RSA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15310,7 +16053,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J193 M10:N55 P10:R21 O22:R22 P23:R55 M56:O56 Q56:R56 M57:N193 P57:R193" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J193 M10:N55 P10:R21 O22:R23 P24:R55 M56:O56 Q56:R56 M57:N193 P57:R193" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15323,6 +16066,11 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E53" r:id="rId2" display="Viene richiamato il servizio di validazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation&quot; al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. &#10; &#10;I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione &quot;CASO DI TEST 6&quot; riportata nei documenti &quot;casi di test RAD&quot; e &quot;CDA2_Referto_di_Radiologia_KO&quot; presenti al path https://github.com/ministero-salute/it-fse-accreditamento."/>
+    <hyperlink ref="E126" r:id="rId3" display="Viene richiamato il servizio di validazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation&quot; al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. &#10;&#10;I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione &quot;CASO DI TEST 19&quot; riportata nei documenti &quot;casi di test RSA&quot; e &quot;CDA2_Referto_Specialistica_Ambulatoriale_KO&quot; presenti al path https://github.com/ministero-salute/it-fse-accreditamento."/>
+    <hyperlink ref="E130" r:id="rId4" display="Viene richiamato il servizio di validazione &quot;https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation&quot; al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. &#10;&#10;I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione &quot;CASO DI TEST 23&quot; riportata nei documenti &quot;casi di test RSA&quot; e &quot;CDA2_Referto_Specialistica_Ambulatoriale_KO&quot; presenti al path https://github.com/ministero-salute/it-fse-accreditamento."/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15330,8 +16078,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -15342,7 +16090,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -15350,42 +16098,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -15406,7 +16154,7 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -15424,170 +16172,170 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
-        <v>452</v>
+      <c r="A1" s="51" t="s">
+        <v>523</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>456</v>
+        <v>525</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>459</v>
+      <c r="B2" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>460</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>461</v>
+      <c r="B3" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>462</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>463</v>
+      <c r="B4" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>465</v>
+      <c r="A5" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>467</v>
+      <c r="A6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>469</v>
+      <c r="A7" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>471</v>
+      <c r="B8" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>473</v>
+      <c r="B9" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>543</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="36.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>475</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>476</v>
+      <c r="A10" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>478</v>
+      <c r="A11" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="52"/>
+      <c r="D12" s="59"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="52"/>
+      <c r="D13" s="59"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16556,7 +17304,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16568,32 +17316,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="60" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
-        <v>479</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
+++ b/GATEWAY/A1#111#GSQUAREDXX/Gsquared/ReSked/6.0/accreditamento-checklist_V8.2.7.xlsx
@@ -475,10 +475,10 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-09T11:10:13.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b9eb222b5a9280b7d2ef2d0df6a705c1 </t>
+    <t xml:space="preserve">2026-02-24T14:26:44.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a58b25dbe68edb3b294b9c1224358424</t>
   </si>
   <si>
     <t xml:space="preserve">CERT_VAC</t>
@@ -573,10 +573,10 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-09T11:10:26.000000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f72aee7118cf9b389673da6a15773aad </t>
+    <t xml:space="preserve">2026-02-24T14:33:19.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b67e91fd7098aeb32106981f5d326c9</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
@@ -1274,13 +1274,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-10T09:16:22.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d6c6a0c66a91d3d4bc22a421e186d99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.f5dad03ce9eb274cf3cbe4a017c5a605f51e5fbe6fec209b3f280cd921a865e7.6dadef043f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2026-02-24T14:37:10.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25c40af7a5072865adc4fe03c777b31d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.165d6671706f68e70e524470472a0efd9aee4e5495d9acf59f8fdf0ddd6c1efc.46e2754320^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ] </t>
@@ -1293,13 +1293,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-10T09:57:32.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9ada14bca7a708bd45ac2fc06d498b37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.58ca3e60b9a645ba0a5d511fdcc729692035f66a596dc6f9b3573767e6b19181.42af86444c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T14:49:15.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">719ebf893cae98dddad268a10f4c837c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.3e32a62d3c146ad838a365b3a46de69ad73ab6c5dd20b471d033c2fb24cb4905.fc02794631^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'] </t>
@@ -1319,13 +1319,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-10T13:50:58.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfab95ceb5dc473285ec1833de88f3c7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.b97cdf90132109cfc6c80299047a9017c829d411108f2ea0031737cd0e167a48.5a80e705d9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T14:57:46.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040a1ed1f53a60bef9e890e577e75e56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.88583aa707e6f165319fba695f8f3417b18af450d65cf21f8e27e989cadd3977.a82ac7adac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'order' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected. </t>
@@ -1338,13 +1338,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-10T15:08:25.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">c21fd35315abcf8471b70f84def20f54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.921921c137a8fc65b182528e91b70190101abd6f6ba4973ad87fbb579e7e8611.b7f8205f3e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2026-02-24T15:01:48.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">c09640c9866f1ec5278e4a5d9da147ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a0d43aed85b2c20a564071d064695678ed73f64017d9db84d73b55c397be6edc.02760cf2df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":effectiveTime}'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.</t>
@@ -1357,13 +1357,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-11T09:56:48.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a613795733da25788096cf7f9695171d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7799df3193d1c86779f23c593be1b31d7acd8441a322bf8507f2e918ffc6f297.4cbad6b30e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T15:05:37.000000Z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0dda249d77ad6d659153596206732862 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.872e13608bb1e975b9cb1809af476607ea0a6b7a6bb2151f6f1258101c31afb9.bfa1a6c8cf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text'] </t>
@@ -1376,13 +1376,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-11T11:04:29.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9eab6043663f2446a63e4e7a69dc661a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.7c6db5dd9aa3fbf05e0d65f9303f1c61867e2f95ec4c3a735df1c4a7a441580d.5eec9a816e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T15:10:51.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8cbcd3e779c17a65b2c937aa40342aec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.b22a7cff9ec67064d3b9667ad0f8d88868613ab24da22513f4265777524895a8.f4bb9eac9e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text'] </t>
@@ -1395,13 +1395,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-16T09:44:23.000000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75dda1016606895bbd0e57d4db6fb240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.1e7e203c56bd295182cd7364ccd513a07373aa132e8824e0041a2edd3b56904b.3914f37836^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T15:15:35.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e501e376711647a7dd3e7a9f936ba667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.ac6aa1f9d43d74c1afdc1e1ca5cb2811af5be0fe6a90cfa18f182d7aefa0ec3a.c49a450b7e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']</t>
@@ -1414,13 +1414,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-16T11:41:23.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">d083cbfba9a5b9bef5e189ee5b263da2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.fd3d31333e3ba877fe21a5d6bb80eacb923adb91b26e047a302551d5005df668.812a92e875^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T15:49:11.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffd448231edae29b38a81d3e07960e97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.66a60452980148c881e6184100764751370df91e91a1f7947ea5bd85d33d034b.b7c2c8fc2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore Semantico. [ERRORE-b26| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato] </t>
@@ -1433,13 +1433,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-16T13:40:09.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">511341b0febde2d2709c65774eb9083c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.30307b1065cfdb413e558f23b40623aabcbd9852f3147ba0fd026c87c7c8f542.898f92d231^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T15:53:28.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">948570f4bf1089fa553601b678b9e26d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.580baed4036ff09cd18e111864a8f8be3e7c95845771a932a3cf0aae58820d42.0348b912f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code'] </t>
@@ -1452,13 +1452,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-16T14:06:50.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70b65c6f08b95005d127b2ec6503000e </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.2efa2adbf0fbc760a62d4bbff0ac32c8fa9b0c7a7342782c8f9b70a455c705f7.597c214a74^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T15:59:06.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1d54abf6adff5cf0c6e765e7b7653cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.9f6eb3d38f56d4ff33a77b730361edaf0ce01d83b4e2ee9ac33d48171aff202e.513e28c7a6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-b53| Sotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato ]</t>
@@ -1471,13 +1471,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-16T15:37:30.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">934db73ca733fd59a4c3595f6bc0740f </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.4af90d65b142fda056578d305c8738909fa6dafa0e3b7b3481ccdf7f8c9ea68d.d8678e9c2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T16:05:27.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502d993958387f5a103053d0a9f48ff3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.d625a85f9cbc769f9e6d754eb925c3f3c694de9312024e81e4a78e45cd3c3502.d326ad0d1a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-b57| Sotto-sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
@@ -1490,13 +1490,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-16T16:28:00.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a45162f8d415d4c725f1e1b46a7b1804 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.9391069a4bf2d4f280ef720ab3c207a2c7d7df69d4589346402e2771734b88b1.a6df52449e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T16:11:09.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ef2b88952cc9b5ad4f1a3bf5aca2a15e </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.4083b044cf08237b810817023fa5b230c3f25cd19a300df133f112e29b077d5d.5fa58fc2af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 666.6] </t>
@@ -1509,13 +1509,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-17T10:45:05.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2ac3dd6ea990b44cb8dfbbd19a9668d7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.4f646b47dbbee1178fe83872e85c95c20fbac725bff71053194628b6c691ecda.d061b5b158^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T16:18:12.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52100084c66cb20d576ae47084eb4d49 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.81e6ae0882de355ffe4bd723680376bbdb52628987c8ae176f172e15c7f1eafe.f82f86f69d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore semantico. [ERRORE-30| L'elemento ClinicalDocument/legalAuthenticator/signatureCode deve essere valorizzato con il codice \"S\" ] </t>
@@ -1758,13 +1758,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-18T17:34:45.000000Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bf07a9b5f8f4093e1a0edb1371d9633e </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.4892d70ce75706dfe1a5ba06a8710a5d7581c0b09baf0a551fb009d8237d217f.298afb83d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T11:43:26.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8940b74d130d80bee35eef061dccd18f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.f472404fdf5b7d209387b6ddebb30f13132359332aaa634fb8de22287bd6e5e4.54cca43969^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT25</t>
@@ -1855,13 +1855,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-17T11:39:53.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8b548ba8a236cd3f9e3156ee71bec63 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.00b9ca115642264b61cbe4ae3429a07c5fc7bc3657ac87a1ba42d555b219527c.7a471e9ee1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T16:27:52.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1657d71d6bcd64f9db8cc11367006d32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.f4678a7a96b28cdb64a0f7a00043f97121f48148bce5c4a4c3750b5cd661e054.d34e6a09ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore vocabolario.","detail":"Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 666.6]</t>
@@ -1928,13 +1928,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-17T14:51:18.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">69edbe38fc2566b572bda5f8fc1b7969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a4c5c2a9b970270f441d5d91a414c870e2471a0387235ee91a42bb44b698e57f.91eccc46b9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId </t>
+    <t xml:space="preserve">2026-02-24T16:31:28.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9c22889f01897c71998e7f37a15d3a1e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.081c37eb5b02318d2cdeb68f30a28b9ac5c6e9f7ba77e32e9566dbae54563cc7.8ae9e11c6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore di sintassi. ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected. </t>
@@ -2004,13 +2004,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2026-02-17T15:01:43.000000Z </t>
-  </si>
-  <si>
-    <t xml:space="preserve">e85fadb9a77191e76dc830a1824fd9f3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a137364aee8404a5353a75b6ee3d88d9a08ee153e55bd8edbeed118597e990fb.4802a236ca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2026-02-24T16:34:25.000000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29c8a5d398d08eeb10a49ed089859816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.e940d3ac724ae2869cef1437b7cb729d5fe3c2ecc670afa0fb8a6711cc1b3aea.7dd26c09b8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Errore vocabolario. Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: X]</t>
@@ -2253,6 +2253,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2263,12 +2269,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2483,7 +2483,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2660,11 +2660,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2672,11 +2680,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3061,7 +3069,7 @@
   </sheetPr>
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3153,7 +3161,7 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4230,12 +4238,12 @@
   </sheetPr>
   <dimension ref="A1:W750"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F130" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A130" activeCellId="0" sqref="A130"/>
-      <selection pane="bottomRight" activeCell="I164" activeCellId="0" sqref="I164"/>
+      <selection pane="bottomRight" activeCell="J190" activeCellId="0" sqref="J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4744,7 +4752,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="33" t="n">
-        <v>46062</v>
+        <v>46077</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>69</v>
@@ -5084,7 +5092,7 @@
         <v>78</v>
       </c>
       <c r="F23" s="33" t="n">
-        <v>46062</v>
+        <v>46077</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>86</v>
@@ -5426,7 +5434,7 @@
         <v>92</v>
       </c>
       <c r="F31" s="33" t="n">
-        <v>46062</v>
+        <v>46077</v>
       </c>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
@@ -8799,7 +8807,7 @@
         <v>291</v>
       </c>
       <c r="F117" s="33" t="n">
-        <v>46063</v>
+        <v>46077</v>
       </c>
       <c r="G117" s="42" t="s">
         <v>292</v>
@@ -8860,15 +8868,15 @@
         <v>297</v>
       </c>
       <c r="F118" s="33" t="n">
-        <v>46063</v>
-      </c>
-      <c r="G118" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G118" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="H118" s="42" t="s">
+      <c r="H118" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="I118" s="39" t="s">
+      <c r="I118" s="43" t="s">
         <v>300</v>
       </c>
       <c r="J118" s="34" t="s">
@@ -8882,7 +8890,7 @@
       <c r="N118" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O118" s="44" t="s">
+      <c r="O118" s="45" t="s">
         <v>301</v>
       </c>
       <c r="P118" s="34" t="s">
@@ -8962,12 +8970,12 @@
         <v>305</v>
       </c>
       <c r="F120" s="33" t="n">
-        <v>46063</v>
-      </c>
-      <c r="G120" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G120" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="H120" s="42" t="s">
+      <c r="H120" s="44" t="s">
         <v>307</v>
       </c>
       <c r="I120" s="39" t="s">
@@ -9023,7 +9031,7 @@
         <v>311</v>
       </c>
       <c r="F121" s="33" t="n">
-        <v>46063</v>
+        <v>46077</v>
       </c>
       <c r="G121" s="42" t="s">
         <v>312</v>
@@ -9045,7 +9053,7 @@
       <c r="N121" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O121" s="44" t="s">
+      <c r="O121" s="45" t="s">
         <v>315</v>
       </c>
       <c r="P121" s="34" t="s">
@@ -9084,7 +9092,7 @@
         <v>317</v>
       </c>
       <c r="F122" s="33" t="n">
-        <v>46064</v>
+        <v>46077</v>
       </c>
       <c r="G122" s="39" t="s">
         <v>318</v>
@@ -9106,7 +9114,7 @@
       <c r="N122" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O122" s="44" t="s">
+      <c r="O122" s="45" t="s">
         <v>321</v>
       </c>
       <c r="P122" s="34" t="s">
@@ -9145,12 +9153,12 @@
         <v>323</v>
       </c>
       <c r="F123" s="33" t="n">
-        <v>46064</v>
-      </c>
-      <c r="G123" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G123" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="H123" s="42" t="s">
+      <c r="H123" s="44" t="s">
         <v>325</v>
       </c>
       <c r="I123" s="39" t="s">
@@ -9167,7 +9175,7 @@
       <c r="N123" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O123" s="44" t="s">
+      <c r="O123" s="45" t="s">
         <v>327</v>
       </c>
       <c r="P123" s="34" t="s">
@@ -9206,9 +9214,9 @@
         <v>329</v>
       </c>
       <c r="F124" s="33" t="n">
-        <v>46069</v>
-      </c>
-      <c r="G124" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G124" s="44" t="s">
         <v>330</v>
       </c>
       <c r="H124" s="39" t="s">
@@ -9228,7 +9236,7 @@
       <c r="N124" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O124" s="44" t="s">
+      <c r="O124" s="45" t="s">
         <v>333</v>
       </c>
       <c r="P124" s="34" t="s">
@@ -9267,12 +9275,12 @@
         <v>335</v>
       </c>
       <c r="F125" s="33" t="n">
-        <v>46069</v>
-      </c>
-      <c r="G125" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G125" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="H125" s="42" t="s">
+      <c r="H125" s="44" t="s">
         <v>337</v>
       </c>
       <c r="I125" s="39" t="s">
@@ -9289,7 +9297,7 @@
       <c r="N125" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O125" s="44" t="s">
+      <c r="O125" s="45" t="s">
         <v>339</v>
       </c>
       <c r="P125" s="34" t="s">
@@ -9328,15 +9336,15 @@
         <v>341</v>
       </c>
       <c r="F126" s="33" t="n">
-        <v>46069</v>
-      </c>
-      <c r="G126" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G126" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="H126" s="42" t="s">
+      <c r="H126" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="I126" s="43" t="s">
+      <c r="I126" s="46" t="s">
         <v>344</v>
       </c>
       <c r="J126" s="34" t="s">
@@ -9350,7 +9358,7 @@
       <c r="N126" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O126" s="44" t="s">
+      <c r="O126" s="45" t="s">
         <v>345</v>
       </c>
       <c r="P126" s="34" t="s">
@@ -9389,15 +9397,15 @@
         <v>347</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>46069</v>
-      </c>
-      <c r="G127" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G127" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="H127" s="42" t="s">
+      <c r="H127" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="I127" s="43" t="s">
+      <c r="I127" s="46" t="s">
         <v>350</v>
       </c>
       <c r="J127" s="34" t="s">
@@ -9450,15 +9458,15 @@
         <v>353</v>
       </c>
       <c r="F128" s="33" t="n">
-        <v>46069</v>
-      </c>
-      <c r="G128" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G128" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="H128" s="42" t="s">
+      <c r="H128" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="I128" s="43" t="s">
+      <c r="I128" s="46" t="s">
         <v>356</v>
       </c>
       <c r="J128" s="34" t="s">
@@ -9511,15 +9519,15 @@
         <v>359</v>
       </c>
       <c r="F129" s="33" t="n">
-        <v>46069</v>
-      </c>
-      <c r="G129" s="42" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G129" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="H129" s="42" t="s">
+      <c r="H129" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="I129" s="43" t="s">
+      <c r="I129" s="46" t="s">
         <v>362</v>
       </c>
       <c r="J129" s="34" t="s">
@@ -9572,12 +9580,12 @@
         <v>365</v>
       </c>
       <c r="F130" s="33" t="n">
-        <v>46070</v>
-      </c>
-      <c r="G130" s="45" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G130" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="H130" s="45" t="s">
+      <c r="H130" s="47" t="s">
         <v>367</v>
       </c>
       <c r="I130" s="39" t="s">
@@ -9594,7 +9602,7 @@
       <c r="N130" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="O130" s="44" t="s">
+      <c r="O130" s="45" t="s">
         <v>369</v>
       </c>
       <c r="P130" s="34" t="s">
@@ -10844,7 +10852,7 @@
       <c r="B164" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C164" s="46" t="s">
+      <c r="C164" s="48" t="s">
         <v>67</v>
       </c>
       <c r="D164" s="30" t="s">
@@ -10854,7 +10862,7 @@
         <v>436</v>
       </c>
       <c r="F164" s="33" t="n">
-        <v>46071</v>
+        <v>46077</v>
       </c>
       <c r="G164" s="47" t="s">
         <v>437</v>
@@ -10862,7 +10870,7 @@
       <c r="H164" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="I164" s="39" t="s">
+      <c r="I164" s="49" t="s">
         <v>439</v>
       </c>
       <c r="J164" s="34" t="s">
@@ -10900,9 +10908,7 @@
       <c r="E165" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="F165" s="33" t="n">
-        <v>46071</v>
-      </c>
+      <c r="F165" s="33"/>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="39"/>
@@ -11314,9 +11320,9 @@
         <v>464</v>
       </c>
       <c r="F176" s="33" t="n">
-        <v>46070</v>
-      </c>
-      <c r="G176" s="48" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G176" s="50" t="s">
         <v>465</v>
       </c>
       <c r="H176" s="33" t="s">
@@ -11621,15 +11627,15 @@
         <v>486</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>46070</v>
-      </c>
-      <c r="G183" s="48" t="s">
+        <v>46077</v>
+      </c>
+      <c r="G183" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="H183" s="42" t="s">
+      <c r="H183" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="I183" s="43" t="s">
+      <c r="I183" s="46" t="s">
         <v>489</v>
       </c>
       <c r="J183" s="34" t="s">
@@ -11746,7 +11752,7 @@
       <c r="B186" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C186" s="49" t="s">
+      <c r="C186" s="51" t="s">
         <v>59</v>
       </c>
       <c r="D186" s="30" t="s">
@@ -11924,7 +11930,7 @@
         <v>509</v>
       </c>
       <c r="F190" s="33" t="n">
-        <v>46070</v>
+        <v>46077</v>
       </c>
       <c r="G190" s="33" t="s">
         <v>510</v>
@@ -12055,7 +12061,7 @@
       <c r="D193" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="E193" s="50" t="s">
+      <c r="E193" s="52" t="s">
         <v>519</v>
       </c>
       <c r="F193" s="33"/>
@@ -16090,7 +16096,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -16154,7 +16160,7 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -16172,7 +16178,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>523</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -16184,158 +16190,158 @@
       <c r="D1" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="55" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="58" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="57" t="s">
         <v>533</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="59" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="58" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="59" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="59" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="59" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="59" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="36.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>545</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="60" t="s">
         <v>546</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="58" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="56" t="s">
         <v>528</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="59" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="59"/>
+      <c r="D12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="59"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17304,7 +17310,7 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -17316,32 +17322,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>550</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="62" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>551</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
